--- a/data/trans_dic/P23_9_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_9_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas</t>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>13,48%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>10,5%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,2%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 18,12</t>
+          <t>5,65; 17,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,02</t>
+          <t>6,11; 18,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,12</t>
+          <t>1,97; 11,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 23,74</t>
+          <t>6,25; 20,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 12,83</t>
+          <t>7,6; 23,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,81</t>
+          <t>8,03; 27,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,09</t>
+          <t>3,3; 11,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 16,99</t>
+          <t>6,3; 15,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,71</t>
+          <t>1,91; 8,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 13,71</t>
+          <t>1,39; 7,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,37</t>
+          <t>5,5; 16,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 17,54</t>
+          <t>3,98; 15,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 12,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 15,24</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 8,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 12,28</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 17,4</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 18,76</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>10,69%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,84%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 10,17</t>
+          <t>3,24; 10,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 17,86</t>
+          <t>6,62; 21,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 20,1</t>
+          <t>5,25; 20,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 17,59</t>
+          <t>3,02; 10,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 14,91</t>
+          <t>5,92; 17,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 22,38</t>
+          <t>9,52; 23,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 27,86</t>
+          <t>6,26; 15,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 17,62</t>
+          <t>12,58; 22,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,23</t>
+          <t>16,91; 28,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,38; 17,81</t>
+          <t>5,14; 13,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 20,21</t>
+          <t>7,45; 17,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,05</t>
+          <t>5,31; 14,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 11,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 18,53</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 20,91</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 10,79</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 15,66</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 17,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 32,24</t>
+          <t>14,26; 28,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 24,77</t>
+          <t>15,41; 25,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 28,47</t>
+          <t>14,42; 27,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 20,81</t>
+          <t>12,95; 26,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,2</t>
+          <t>11,27; 21,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 26,53</t>
+          <t>12,81; 26,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,17; 24,56</t>
+          <t>11,89; 20,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 22,67</t>
+          <t>17,92; 26,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 24,35</t>
+          <t>16,96; 25,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 23,95</t>
+          <t>6,15; 12,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 24,84</t>
+          <t>13,31; 23,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 20,53</t>
+          <t>10,32; 20,69</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 22,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 24,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 24,28</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,43; 17,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 20,44</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 21,4</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>18,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>20,29%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 22,23</t>
+          <t>11,81; 23,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 31,48</t>
+          <t>20,87; 31,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,74; 23,44</t>
+          <t>13,62; 22,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 27,81</t>
+          <t>9,5; 17,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 21,9</t>
+          <t>15,49; 27,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,64</t>
+          <t>13,82; 25,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,72; 28,63</t>
+          <t>12,92; 21,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 25,49</t>
+          <t>17,7; 26,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,51</t>
+          <t>20,25; 29,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,47; 27,45</t>
+          <t>9,72; 17,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 24,75</t>
+          <t>14,89; 25,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 24,38</t>
+          <t>14,08; 23,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 20,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 27,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 24,75</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 16,15</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 24,48</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>15,33; 22,72</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>21,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>19,72%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18,27%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>20,77%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>20,25%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 22,34</t>
+          <t>12,78; 23,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,36; 27,06</t>
+          <t>16,26; 28,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,91; 25,98</t>
+          <t>14,91; 25,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 26,98</t>
+          <t>6,34; 14,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 25,66</t>
+          <t>15,1; 28,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 26,24</t>
+          <t>14,12; 26,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,08; 27,52</t>
+          <t>14,38; 25,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 25,73</t>
+          <t>16,0; 26,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 22,39</t>
+          <t>17,78; 27,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,22; 25,2</t>
+          <t>10,52; 21,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,46; 25,36</t>
+          <t>14,83; 25,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,45; 24,97</t>
+          <t>16,84; 28,73</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 22,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 25,61</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 25,33</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 16,77</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 24,7</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 25,88</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,34%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>19,0%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,68; 28,94</t>
+          <t>12,17; 29,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,46; 43,81</t>
+          <t>24,45; 42,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,18; 27,17</t>
+          <t>15,45; 27,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,31; 33,27</t>
+          <t>6,68; 18,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 26,6</t>
+          <t>17,58; 33,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,58; 32,06</t>
+          <t>13,55; 26,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,59; 24,52</t>
+          <t>15,22; 27,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 34,09</t>
+          <t>18,93; 31,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 24,86</t>
+          <t>15,21; 25,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,06; 34,28</t>
+          <t>17,89; 32,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 24,02</t>
+          <t>16,91; 33,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 30,94</t>
+          <t>20,8; 35,84</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 25,73</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 33,08</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>16,22; 24,43</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>14,16; 24,13</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>19,19; 30,86</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 29,68</t>
         </is>
       </c>
     </row>
@@ -1496,60 +1905,90 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>17,68%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>15,32%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>17,93%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>15,22%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>17,31%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
         <is>
           <t>17,8%</t>
         </is>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,0</t>
+          <t>12,5; 17,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,45</t>
+          <t>17,62; 22,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,26</t>
+          <t>13,59; 18,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,58</t>
+          <t>9,81; 14,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,42; 17,53</t>
+          <t>15,14; 20,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,89; 21,8</t>
+          <t>15,72; 21,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 21,02</t>
+          <t>13,63; 17,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,54</t>
+          <t>18,04; 21,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 16,91</t>
+          <t>17,42; 21,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,47</t>
+          <t>11,16; 15,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 18,98</t>
+          <t>15,4; 20,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,08; 19,71</t>
+          <t>15,25; 20,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 16,89</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 21,72</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 19,04</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 14,16</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 19,76</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 19,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>51020</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>56748</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26334</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54816</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5671</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7122</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31225</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51901</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21532</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18441</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>82245</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>108649</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>47866</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73256</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9406</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10187</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28389; 87557</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31782; 97633</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10053; 58090</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29033; 95329</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3196; 10021</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3539; 12140</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15349; 55408</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32463; 78660</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9796; 42654</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6630; 37764</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2057; 6277</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1533; 6159</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>55567; 119285</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>74228; 157767</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26017; 83362</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>41586; 115637</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5899; 13825</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6271; 15502</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35353</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>59562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58570</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34156</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7403</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52000</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87578</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>114142</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>45057</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5475</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4255</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>87352</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>147140</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>172712</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>79213</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10809</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11658</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18379; 60594</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36791; 117224</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31216; 124508</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17501; 63628</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2952; 8876</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4665; 11287</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32321; 77792</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63627; 114074</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87224; 144828</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25953; 68490</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3496; 8244</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2441; 6732</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>60565; 120920</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>107770; 196760</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>131597; 232098</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>53185; 117051</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7441; 15163</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8324; 16309</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>131627</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>129646</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>132623</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>123065</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9381</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10967</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>113899</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>153200</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>146214</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64536</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9647</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7942</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>245526</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>282846</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>278837</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>187602</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>19028</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18909</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>95582; 188576</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>102527; 167028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97708; 185910</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87320; 177077</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6722; 12664</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7787; 16126</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>83929; 147475</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>124579; 185834</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>119247; 178108</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>44152; 91266</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7178; 12466</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5633; 11294</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>198654; 307395</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>237492; 327417</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>236885; 335181</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>145217; 242717</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15315; 23216</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>14485; 24692</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104862</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>165828</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>112290</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>86971</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12027</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10772</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>115275</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>141535</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>158098</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>87450</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10206</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9948</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>220137</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>307362</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>270388</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>174421</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>22234</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>20720</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75297; 152115</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>133194; 200157</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>84604; 141728</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>62052; 117414</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8929; 15895</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7804; 14258</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>86714; 146396</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>115689; 172425</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>131670; 188704</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64103; 113180</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7738; 13087</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7492; 12689</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>178269; 273607</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>266692; 355761</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>228170; 314721</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>138357; 212006</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17853; 26829</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>16816; 24921</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83003</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104504</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>97959</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46500</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9111</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9357</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96029</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>102111</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>111411</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>78846</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9620</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10271</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>179032</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>206615</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>209369</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>125347</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18731</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19628</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>60925; 110316</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>80684; 138913</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73345; 126695</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>30658; 68569</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6600; 12253</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6370; 11927</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72273; 125798</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77287; 127336</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>88422; 137271</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>53476; 107553</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7235; 12585</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7740; 13207</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>143584; 215681</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>173971; 250724</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>174789; 250574</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>96478; 166257</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>15105; 22841</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>16062; 23575</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90534</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>162494</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>107517</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>63893</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11250</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8434</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>142070</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>158501</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>126207</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>168054</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15269</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16910</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>232604</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>320995</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>233724</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>231947</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>26519</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>25344</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>61965; 147746</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>123250; 212129</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>78993; 139462</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36132; 99474</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8008; 15125</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5923; 11465</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>104720; 189783</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>120642; 200054</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>97040; 162100</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>121681; 221136</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10466; 20842</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>12610; 21734</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>185513; 308007</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>259785; 377603</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>186399; 280765</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>172815; 294552</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>20620; 33157</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>20194; 30970</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>496398</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>678782</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>535292</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>409401</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>52774</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>54055</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>550498</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>694826</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>677604</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>462384</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>53952</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>52391</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1046896</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1373608</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1212895</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>871785</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>106726</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>106446</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>420081; 590636</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>595421; 763147</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>462771; 624128</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>333230; 486184</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45205; 60669</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>47029; 64130</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>483903; 632205</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>629437; 766447</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>612875; 750418</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>395933; 545338</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46340; 62462</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>45583; 60748</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>945139; 1167618</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1261420; 1492025</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1114228; 1318262</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>771019; 983273</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>96266; 118464</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>95774; 117889</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
